--- a/workbooks/StudentDetails.xlsx
+++ b/workbooks/StudentDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>roll_no</t>
   </si>
@@ -38,22 +38,25 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>ab@gf</t>
-  </si>
-  <si>
-    <t>chdnb@tnv</t>
-  </si>
-  <si>
-    <t>fdjkfd@kogfjg</t>
+    <t>Arun Nair</t>
+  </si>
+  <si>
+    <t>appuarunnair@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Kurhade</t>
+  </si>
+  <si>
+    <t>adikrhd@gmail.com</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>CSH14030</t>
+  </si>
+  <si>
+    <t>CSH14038</t>
   </si>
 </sst>
 </file>
@@ -77,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,10 +109,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,67 +407,64 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>312312312</v>
+        <v>9820055038</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>31231234</v>
+        <v>9664240554</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>546646</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workbooks/StudentDetails.xlsx
+++ b/workbooks/StudentDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>roll_no</t>
   </si>
@@ -36,15 +36,6 @@
   </si>
   <si>
     <t>mobile</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>CSH14030</t>
-  </si>
-  <si>
-    <t>CSH14038</t>
   </si>
   <si>
     <t>Raj</t>
@@ -107,10 +98,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +391,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,25 +414,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>9820035038</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,16 +435,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>9644240554</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/workbooks/StudentDetails.xlsx
+++ b/workbooks/StudentDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>roll_no</t>
   </si>
@@ -38,16 +38,442 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Adi</t>
-  </si>
-  <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
+    <t>Achukola Akanksha</t>
+  </si>
+  <si>
+    <t>Agarwal Govind</t>
+  </si>
+  <si>
+    <t>AKHILESH ASHOK</t>
+  </si>
+  <si>
+    <t>Bagwan Ikra</t>
+  </si>
+  <si>
+    <t>Bhangaonkar Jatin</t>
+  </si>
+  <si>
+    <t>Bhandari Sandeepsingh</t>
+  </si>
+  <si>
+    <t>Harshada Prabhakar Bharude</t>
+  </si>
+  <si>
+    <t>Biyala Lakesh</t>
+  </si>
+  <si>
+    <t>Chalke Diksha</t>
+  </si>
+  <si>
+    <t>Kuntal Sanjay Chaudhari</t>
+  </si>
+  <si>
+    <t>Chauhan Khushali</t>
+  </si>
+  <si>
+    <t>Jaydeep Dalvi</t>
+  </si>
+  <si>
+    <t>Das ManishKumar</t>
+  </si>
+  <si>
+    <t>Desai Suraj</t>
+  </si>
+  <si>
+    <t>Mrunmayee Dixit</t>
+  </si>
+  <si>
+    <t>Abhinav C. Gangurde</t>
+  </si>
+  <si>
+    <t>Garg Vibhoor</t>
+  </si>
+  <si>
+    <t>Girap Ankeeta</t>
+  </si>
+  <si>
+    <t>Gunjal Ritesh</t>
+  </si>
+  <si>
+    <t>Dhanashree Santosh Ghodvinde</t>
+  </si>
+  <si>
+    <t>Ankeeta Deepak Girap</t>
+  </si>
+  <si>
+    <t>GUNJAL RITESH ASHOK</t>
+  </si>
+  <si>
+    <t>Priya Gupta</t>
+  </si>
+  <si>
+    <t>Mohit Dhananjay Jadhav</t>
+  </si>
+  <si>
+    <t>NILESH SUBHASH JADHAV</t>
+  </si>
+  <si>
+    <t>Nikita Jha</t>
+  </si>
+  <si>
+    <t>Sonia Santosh Jitekar</t>
+  </si>
+  <si>
+    <t>Anuja Kadam</t>
+  </si>
+  <si>
+    <t>dakshata</t>
+  </si>
+  <si>
+    <t>Shivani Kakade</t>
+  </si>
+  <si>
+    <t>Shivani Ashok Kedar</t>
+  </si>
+  <si>
+    <t>sanjaykumar shivshankar kesharvani</t>
+  </si>
+  <si>
+    <t>HRUSHABH PRAMOD KOTWAL</t>
+  </si>
+  <si>
+    <t>Prakash Tarun Kumar</t>
+  </si>
+  <si>
+    <t>MANE NIKITA ARJUN</t>
+  </si>
+  <si>
+    <t>Rupali Shivaji Metkari</t>
+  </si>
+  <si>
+    <t>Mishra Abhinas Sudarshan</t>
+  </si>
+  <si>
+    <t>Simran nagpurkar</t>
+  </si>
+  <si>
+    <t>Tanvi Onkar</t>
+  </si>
+  <si>
+    <t>Rutuja Anil Pande</t>
+  </si>
+  <si>
+    <t>Ankur Pandey</t>
+  </si>
+  <si>
+    <t>RUPALI SHIVAJI PANGARE</t>
+  </si>
+  <si>
+    <t>Ashish Rajendra Patil</t>
+  </si>
+  <si>
+    <t>Pratik Patil</t>
+  </si>
+  <si>
+    <t>Shivani Nana Patil</t>
+  </si>
+  <si>
+    <t>Vaishnavi liladhar patil</t>
+  </si>
+  <si>
+    <t>Shruti Vishnu Pawar</t>
+  </si>
+  <si>
+    <t>Pisal Mayuri</t>
+  </si>
+  <si>
+    <t>Aarti.pote</t>
+  </si>
+  <si>
+    <t>Atul Kumar Nandlal Prajapati</t>
+  </si>
+  <si>
+    <t>Sandiphog Rohit</t>
+  </si>
+  <si>
+    <t>Prince Satapathi</t>
+  </si>
+  <si>
+    <t>shubham dnyaneshwar shewale</t>
+  </si>
+  <si>
+    <t>Shewale Swapnali</t>
+  </si>
+  <si>
+    <t>Aakanksha Shinde</t>
+  </si>
+  <si>
+    <t>darpan deepak shinde</t>
+  </si>
+  <si>
+    <t>Shrina Sachin</t>
+  </si>
+  <si>
+    <t>Poorvi Shrivastava</t>
+  </si>
+  <si>
+    <t>Tanmay Shukla</t>
+  </si>
+  <si>
+    <t>Apoorva Anil Singh</t>
+  </si>
+  <si>
+    <t>Himani Solanki</t>
+  </si>
+  <si>
+    <t>Sonavale Abhishek</t>
+  </si>
+  <si>
+    <t>sachin subba ram</t>
+  </si>
+  <si>
+    <t>Takke Prachi</t>
+  </si>
+  <si>
+    <t>Smruti Sanjay Tandlikar</t>
+  </si>
+  <si>
+    <t>siddhesh</t>
+  </si>
+  <si>
+    <t>Thorat Vrushabh</t>
+  </si>
+  <si>
+    <t>pallavi manik waghmare</t>
+  </si>
+  <si>
+    <t>Shreyan Wakaskar</t>
+  </si>
+  <si>
+    <t>Walde Abhinav</t>
+  </si>
+  <si>
+    <t>Rahul Ashok Wani</t>
+  </si>
+  <si>
+    <t>Abhijeet Warik</t>
+  </si>
+  <si>
+    <t>Ravi Yadav</t>
+  </si>
+  <si>
+    <t>akku.kola@gmail.com</t>
+  </si>
+  <si>
+    <t>agrawalgovind998@gmail.com</t>
+  </si>
+  <si>
+    <t>akhileshashok9797@gmail.com</t>
+  </si>
+  <si>
+    <t>ikrabagwan862@yahoo.com</t>
+  </si>
+  <si>
+    <t>jbhangaonkar@yahoo.in</t>
+  </si>
+  <si>
+    <t>Sandybhndr05@gmail.com</t>
+  </si>
+  <si>
+    <t>harshadabharude@gmail.com</t>
+  </si>
+  <si>
+    <t>lakeshbiyala126@gmail.com</t>
+  </si>
+  <si>
+    <t>dikshachalke20@gmail.com</t>
+  </si>
+  <si>
+    <t>kuntalchaudhari98@gmail.com</t>
+  </si>
+  <si>
+    <t>patelkhushi339@gmail.com</t>
+  </si>
+  <si>
+    <t>jaydeepdalvi@live.in</t>
+  </si>
+  <si>
+    <t>hsinam96@gmail.com</t>
+  </si>
+  <si>
+    <t>surajdesai1297@gmail.com</t>
+  </si>
+  <si>
+    <t>mrunmayeedixit@gmail.com</t>
+  </si>
+  <si>
+    <t>gangurde.abhinav@gmail.com</t>
+  </si>
+  <si>
+    <t>vibhoorg@gmail.com</t>
+  </si>
+  <si>
+    <t>ankeeta.1897@gmail.com</t>
+  </si>
+  <si>
+    <t>ritzgunjal22@gmail.com</t>
+  </si>
+  <si>
+    <t>dhanughodvinde30@gmail.com</t>
+  </si>
+  <si>
+    <t>riteshag22.38@gmail.com</t>
+  </si>
+  <si>
+    <t>priyagupta1196@gmail.com</t>
+  </si>
+  <si>
+    <t>jadhav.mohit71@gmail.com</t>
+  </si>
+  <si>
+    <t>nileshsujadhav1998@gmail.com</t>
+  </si>
+  <si>
+    <t>nikki46970@gmail.com</t>
+  </si>
+  <si>
+    <t>soniajitekar43@gmail.com</t>
+  </si>
+  <si>
+    <t>anu1207.ak@gmail.com</t>
+  </si>
+  <si>
+    <t>dakshatakadam98@gmail.com</t>
+  </si>
+  <si>
+    <t>shivani.kakade03@gmail.com</t>
+  </si>
+  <si>
+    <t>shivanikedar19@gmail.com</t>
+  </si>
+  <si>
+    <t>kesharvanisanjay@gmail.com</t>
+  </si>
+  <si>
+    <t>hrushabhkotwal2015@gmai.com</t>
+  </si>
+  <si>
+    <t>superscientist01@gmail.com</t>
+  </si>
+  <si>
+    <t>nikitamane64@gmail.com</t>
+  </si>
+  <si>
+    <t>rupalimetkari1@gmail.com</t>
+  </si>
+  <si>
+    <t>mishraavinash98@gmail.com</t>
+  </si>
+  <si>
+    <t>simran20nagpurkar@gmail.com</t>
+  </si>
+  <si>
+    <t>tanV97@gmail.com</t>
+  </si>
+  <si>
+    <t>rapande222@gmail.com</t>
+  </si>
+  <si>
+    <t>ankur.think7@gmail.com</t>
+  </si>
+  <si>
+    <t>rupalipangare2997@gmail.com</t>
+  </si>
+  <si>
+    <t>ashish7.patil7@gmail.com</t>
+  </si>
+  <si>
+    <t>pratikpro0076@gmail.com</t>
+  </si>
+  <si>
+    <t>shivanipatil797@gmail.com</t>
+  </si>
+  <si>
+    <t>Vaishu16297@gmail.com</t>
+  </si>
+  <si>
+    <t>shrutipawar167@gmail.com</t>
+  </si>
+  <si>
+    <t>mayud.pisal@gmail.com</t>
+  </si>
+  <si>
+    <t>aartipote11@gmail.com</t>
+  </si>
+  <si>
+    <t>prajapatiatul201@gmail.com</t>
+  </si>
+  <si>
+    <t>rohit.sandiphog@gmail.com</t>
+  </si>
+  <si>
+    <t>Psatapathi@rediff.com</t>
+  </si>
+  <si>
+    <t>shub2411998@gmail.com</t>
+  </si>
+  <si>
+    <t>r.temt97@gmail.com</t>
+  </si>
+  <si>
+    <t>shindeaakanksha.as@gmail.com</t>
+  </si>
+  <si>
+    <t>darpanshinde82@gmail.com</t>
+  </si>
+  <si>
+    <t>shrinasinha07.ss@gmail.com</t>
+  </si>
+  <si>
+    <t>poorvishrivastava.shrivastava@gmail.com</t>
+  </si>
+  <si>
+    <t>tanmay.shukla31@gmail.com</t>
+  </si>
+  <si>
+    <t>apoorvasingh2796@gmail.com</t>
+  </si>
+  <si>
+    <t>himanisolanki41@gmail.com</t>
+  </si>
+  <si>
+    <t>abhisheksonavale111@gmail.com</t>
+  </si>
+  <si>
+    <t>sachinram111998@gmail.com</t>
+  </si>
+  <si>
+    <t>shubhshine1591996@gmail.com</t>
+  </si>
+  <si>
+    <t>smriti.tan1997@gmail.com</t>
+  </si>
+  <si>
+    <t>siddheshtatkare95@gmail.com</t>
+  </si>
+  <si>
+    <t>thakare1996@gmail.com</t>
+  </si>
+  <si>
+    <t>wpallavi16@gmail.com</t>
+  </si>
+  <si>
+    <t>wakaskarshreyan@gmail.com</t>
+  </si>
+  <si>
+    <t>abhinavwalde@gmail.com</t>
+  </si>
+  <si>
+    <t>wani.rahul1997@gmail.com</t>
+  </si>
+  <si>
+    <t>abhijeetwarik02@gmail.com</t>
+  </si>
+  <si>
+    <t>yravi104460@gmail.com</t>
+  </si>
+  <si>
+    <t>84548 42766</t>
   </si>
 </sst>
 </file>
@@ -63,12 +489,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,23 +517,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,57 +843,1045 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9833852473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>9820035038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7387385273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8828097508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9699652313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8975338250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>9644240554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7066834816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9833650320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9867757861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9619074471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8424946233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8976817322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8237851978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8879171542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7045357175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9757146716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9987956632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7208603325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7710830814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8698208148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7208603325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7710830814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9819395931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9987065506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9987239793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7045768846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9833864040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9619924465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8446740092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9130401902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8108978219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7506067752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7208207752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8097984935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8286123471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8419943090</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3">
+        <v>9967605390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7045665861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="3">
+        <v>9769348587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7021669489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="3">
+        <v>9987445322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3">
+        <v>8108558360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9892864484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8286330068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3">
+        <v>9920225290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7757844956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9403035594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>50</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="4">
+        <v>9768743847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8286246133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>52</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9702081627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="4">
+        <v>9870922987</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8828342449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9967752647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="3">
+        <v>9967738336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="3">
+        <v>8452953233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="3">
+        <v>9967802765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8452961311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8446623110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="4">
+        <v>9004875956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7506319065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="4">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8451088947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="4">
+        <v>9420210640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="3">
+        <v>7666641501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>68</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3">
+        <v>9619842808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7738783997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>70</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7218526162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>71</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="3">
+        <v>9167452827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>72</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="3">
+        <v>9970672160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>73</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="3">
+        <v>9987177386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>74</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8983265987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>75</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7021910794</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>